--- a/58.themeparkcoupons/extracted_data/58.Data.xlsx
+++ b/58.themeparkcoupons/extracted_data/58.Data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\58.themeparkcoupons\extracted_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E937DC1-9605-4699-A5E7-63FA4C807980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -21,9 +26,6 @@
   </si>
   <si>
     <t>website</t>
-  </si>
-  <si>
-    <t>address</t>
   </si>
   <si>
     <t>overview</t>
@@ -6171,12 +6173,15 @@
   <si>
     <t>https://themeparkcoupons.org/wp-content/uploads/2015/05/The_Cowboy_Carousel_Center_Logo-e1431718883631.png</t>
   </si>
+  <si>
+    <t>contact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -6220,112 +6225,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6633,21 +6545,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74221179-f514-456d-afeb-792d966f732e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74221179-F514-456D-AFEB-792D966F732E}">
   <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="82.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="151.428571428571" customWidth="1"/>
-    <col min="4" max="4" width="255.714285714286" customWidth="1"/>
-    <col min="5" max="5" width="99.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" customWidth="1"/>
+    <col min="3" max="3" width="151.44140625" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" customWidth="1"/>
+    <col min="5" max="5" width="99.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6655,4000 +6569,4000 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>113</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>114</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>121</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>122</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>132</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>133</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>140</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>149</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>150</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>157</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>158</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>159</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>176</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>177</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>183</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>184</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>185</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="12.75">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>191</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>192</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>193</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="12.75">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
         <v>199</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>200</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>201</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>207</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>208</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>209</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>215</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>216</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>217</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
         <v>223</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>224</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>225</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="12.75">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
         <v>231</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>232</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>233</v>
       </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="12.75">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
         <v>239</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>240</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>241</v>
       </c>
-      <c r="E54" t="s">
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="12.75">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
         <v>247</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>248</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>249</v>
       </c>
-      <c r="E56" t="s">
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="12.75">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>255</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>256</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>257</v>
       </c>
-      <c r="E58" t="s">
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="12.75">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>263</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>264</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>265</v>
       </c>
-      <c r="E60" t="s">
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="12.75">
-      <c r="A62" t="s">
+      <c r="C62" t="s">
         <v>271</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>272</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>273</v>
       </c>
-      <c r="E62" t="s">
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="12.75">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
         <v>279</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>280</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>281</v>
       </c>
-      <c r="E64" t="s">
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="12.75">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
         <v>287</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>288</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>289</v>
       </c>
-      <c r="E66" t="s">
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="12.75">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
         <v>294</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>295</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>296</v>
       </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E69" s="2" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="12.75">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
         <v>302</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>303</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>304</v>
       </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="12.75">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
         <v>310</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>311</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>312</v>
       </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="12.75">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
         <v>318</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>319</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>320</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="12.75">
-      <c r="A76" t="s">
+      <c r="C76" t="s">
         <v>326</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>327</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>328</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="12.75">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
         <v>334</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>335</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>336</v>
       </c>
-      <c r="E78" t="s">
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="2" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="12.75">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
         <v>342</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>343</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>344</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E81" s="2" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="12.75">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
         <v>350</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>351</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>352</v>
       </c>
-      <c r="E82" t="s">
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="12.75">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>358</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>359</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>360</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="12.75">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
         <v>366</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>367</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>368</v>
       </c>
-      <c r="E86" t="s">
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E87" s="2" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="12.75">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
         <v>374</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>375</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>376</v>
       </c>
-      <c r="E88" t="s">
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E89" s="2" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="12.75">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
         <v>382</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>383</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>384</v>
       </c>
-      <c r="E90" t="s">
+    </row>
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E91" s="2" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="12.75">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
         <v>390</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>391</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>392</v>
       </c>
-      <c r="E92" t="s">
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E93" s="2" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="12.75">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
         <v>398</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>399</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>400</v>
       </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E95" s="2" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="12.75">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
         <v>406</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>407</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>408</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E97" s="2" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="12.75">
-      <c r="A98" t="s">
+      <c r="C98" t="s">
         <v>414</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>415</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>416</v>
       </c>
-      <c r="E98" t="s">
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E99" s="2" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="12.75">
-      <c r="A100" t="s">
+      <c r="C100" t="s">
         <v>422</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>423</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>424</v>
       </c>
-      <c r="E100" t="s">
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E101" s="2" t="s">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="12.75">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
         <v>430</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>431</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>432</v>
       </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E103" s="2" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.75">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
         <v>438</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>439</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>440</v>
       </c>
-      <c r="E104" t="s">
+    </row>
+    <row r="105" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="12.75">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
         <v>446</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>447</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>448</v>
       </c>
-      <c r="E106" t="s">
+    </row>
+    <row r="107" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E107" s="2" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="12.75">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
         <v>454</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>455</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>456</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>457</v>
       </c>
-      <c r="E108" t="s">
+    </row>
+    <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="12.75">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" t="s">
         <v>464</v>
       </c>
-      <c r="C110" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E110" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="12.75">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
         <v>471</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>472</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>473</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>474</v>
       </c>
-      <c r="E112" t="s">
+    </row>
+    <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="12.75">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>481</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>482</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>483</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>484</v>
       </c>
-      <c r="E114" t="s">
+    </row>
+    <row r="115" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="12.75">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
         <v>491</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>492</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>493</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>494</v>
       </c>
-      <c r="E116" t="s">
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E117" s="2" t="s">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="12.75">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>501</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>502</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>503</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>504</v>
       </c>
-      <c r="E118" t="s">
+    </row>
+    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A119" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E119" s="2" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="12.75">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>511</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>512</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>513</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>514</v>
       </c>
-      <c r="E120" t="s">
+    </row>
+    <row r="121" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A121" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E121" s="2" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="12.75">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>521</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>522</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>523</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>524</v>
       </c>
-      <c r="E122" t="s">
+    </row>
+    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A123" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E123" s="2" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="12.75">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
         <v>531</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>532</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>533</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>534</v>
       </c>
-      <c r="E124" t="s">
+    </row>
+    <row r="125" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E125" s="2" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="12.75">
-      <c r="A126" t="s">
+      <c r="C126" t="s">
         <v>540</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>541</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>542</v>
       </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="127" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A127" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E127" s="2" t="s">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="12.75">
-      <c r="A128" t="s">
+      <c r="C128" t="s">
         <v>548</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>549</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>550</v>
       </c>
-      <c r="E128" t="s">
+    </row>
+    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E129" s="2" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="12.75">
-      <c r="A130" t="s">
+      <c r="C130" t="s">
         <v>556</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>557</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>558</v>
       </c>
-      <c r="E130" t="s">
+    </row>
+    <row r="131" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E131" s="2" t="s">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="12.75">
-      <c r="A132" t="s">
-        <v>179</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>564</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>565</v>
       </c>
-      <c r="E132" t="s">
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E133" s="2" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="12.75">
-      <c r="A134" t="s">
+      <c r="C134" t="s">
         <v>571</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>572</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>573</v>
       </c>
-      <c r="E134" t="s">
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E135" s="2" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="12.75">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>579</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>580</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>581</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>582</v>
       </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="137" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E137" s="2" t="s">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="12.75">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
         <v>588</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>589</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>590</v>
       </c>
-      <c r="E138" t="s">
+    </row>
+    <row r="139" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E139" s="2" t="s">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="12.75">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>596</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>597</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>598</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>599</v>
       </c>
-      <c r="E140" t="s">
+    </row>
+    <row r="141" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E141" s="2" t="s">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="12.75">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
         <v>605</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>606</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>607</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>608</v>
       </c>
-      <c r="E142" t="s">
+    </row>
+    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A143" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E143" s="2" t="s">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="12.75">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>615</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>616</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>617</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>618</v>
       </c>
-      <c r="E144" t="s">
+    </row>
+    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E145" s="2" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="12.75">
-      <c r="A146" t="s">
+      <c r="C146" t="s">
         <v>624</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>625</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>626</v>
       </c>
-      <c r="E146" t="s">
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A147" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E147" s="2" t="s">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="12.75">
-      <c r="A148" t="s">
+      <c r="C148" t="s">
         <v>633</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>634</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>635</v>
       </c>
-      <c r="E148" t="s">
+    </row>
+    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="E149" s="2" t="s">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="12.75">
-      <c r="A150" t="s">
+      <c r="C150" t="s">
         <v>641</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>642</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>643</v>
       </c>
-      <c r="E150" t="s">
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E151" s="2" t="s">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="12.75">
-      <c r="A152" t="s">
+      <c r="C152" t="s">
         <v>649</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>650</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>651</v>
       </c>
-      <c r="E152" t="s">
+    </row>
+    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="12.75">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
         <v>657</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>658</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>659</v>
       </c>
-      <c r="E154" t="s">
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A155" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E155" s="2" t="s">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="12.75">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
         <v>666</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>667</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>668</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>669</v>
       </c>
-      <c r="E156" t="s">
+    </row>
+    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E157" s="2" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="12.75">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
         <v>675</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>676</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>677</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>678</v>
       </c>
-      <c r="E158" t="s">
+    </row>
+    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A159" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E159" s="2" t="s">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="12.75">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
         <v>685</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>686</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>687</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>688</v>
       </c>
-      <c r="E160" t="s">
+    </row>
+    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="12.75">
-      <c r="A162" t="s">
+      <c r="C162" t="s">
         <v>694</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>695</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>696</v>
       </c>
-      <c r="E162" t="s">
+    </row>
+    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>437</v>
+      </c>
+      <c r="C164" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="12.75">
-      <c r="A164" t="s">
-        <v>438</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>702</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>703</v>
       </c>
-      <c r="E164" t="s">
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E165" s="2" t="s">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="12.75">
-      <c r="A166" t="s">
+      <c r="C166" t="s">
         <v>709</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>710</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>711</v>
       </c>
-      <c r="E166" t="s">
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A167" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E167" s="2" t="s">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="12.75">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
         <v>718</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>719</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>720</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>721</v>
       </c>
-      <c r="E168" t="s">
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="E169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="12.75">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
         <v>727</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>728</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>729</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>730</v>
       </c>
-      <c r="E170" t="s">
+    </row>
+    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E171" s="2" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="12.75">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
         <v>736</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>737</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>738</v>
       </c>
-      <c r="E172" t="s">
+    </row>
+    <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="E173" s="2" t="s">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="12.75">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
         <v>744</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>745</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>746</v>
       </c>
-      <c r="E174" t="s">
+    </row>
+    <row r="175" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A175" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E175" s="2" t="s">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="12.75">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
         <v>752</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>753</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>754</v>
       </c>
-      <c r="E176" t="s">
+    </row>
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A177" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="E177" s="2" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="12.75">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
         <v>761</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>762</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>763</v>
       </c>
-      <c r="E178" t="s">
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E179" s="2" t="s">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="12.75">
-      <c r="A180" t="s">
+      <c r="C180" t="s">
         <v>769</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>770</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>771</v>
       </c>
-      <c r="E180" t="s">
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="E181" s="2" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="12.75">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
         <v>777</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>778</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>779</v>
       </c>
-      <c r="E182" t="s">
+    </row>
+    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="E183" s="2" t="s">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="12.75">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
         <v>785</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>786</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>787</v>
       </c>
-      <c r="E184" t="s">
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="E185" s="2" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="12.75">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>793</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>794</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>795</v>
       </c>
-      <c r="E186" t="s">
+    </row>
+    <row r="187" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E187" s="2" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="12.75">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
         <v>801</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>802</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>803</v>
       </c>
-      <c r="E188" t="s">
+    </row>
+    <row r="189" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="E189" s="2" t="s">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="12.75">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
         <v>809</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>810</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>811</v>
       </c>
-      <c r="E190" t="s">
+    </row>
+    <row r="191" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E191" s="2" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="12.75">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
         <v>817</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>818</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>819</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>820</v>
       </c>
-      <c r="E192" t="s">
+    </row>
+    <row r="193" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E193" s="2" t="s">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="12.75">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
+        <v>376</v>
+      </c>
+      <c r="D194" t="s">
         <v>826</v>
       </c>
-      <c r="C194" t="s">
-        <v>377</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>827</v>
       </c>
-      <c r="E194" t="s">
+    </row>
+    <row r="195" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A195" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="E195" s="2" t="s">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="12.75">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
         <v>834</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>835</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>836</v>
       </c>
-      <c r="E196" t="s">
+    </row>
+    <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="E197" s="2" t="s">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="12.75">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
         <v>842</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>843</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>844</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>845</v>
       </c>
-      <c r="E198" t="s">
+    </row>
+    <row r="199" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A199" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E199" s="2" t="s">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="12.75">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
         <v>852</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>853</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>854</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>855</v>
       </c>
-      <c r="E200" t="s">
+    </row>
+    <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A201" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="E201" s="2" t="s">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="12.75">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
         <v>861</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>862</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>863</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>864</v>
       </c>
-      <c r="E202" t="s">
+    </row>
+    <row r="203" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="E203" s="2" t="s">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="12.75">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
         <v>870</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>871</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>872</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>873</v>
       </c>
-      <c r="E204" t="s">
+    </row>
+    <row r="205" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A205" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E205" s="2" t="s">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="12.75">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
         <v>880</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>881</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>882</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>883</v>
       </c>
-      <c r="E206" t="s">
+    </row>
+    <row r="207" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A207" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="E207" s="2" t="s">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="12.75">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
         <v>890</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>891</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>892</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>893</v>
       </c>
-      <c r="E208" t="s">
+    </row>
+    <row r="209" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A209" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="E209" s="2" t="s">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="12.75">
-      <c r="A210" t="s">
+      <c r="B210" t="s">
         <v>900</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>901</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>902</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>903</v>
       </c>
-      <c r="E210" t="s">
+    </row>
+    <row r="211" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A211" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="E211" s="2" t="s">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="12.75">
-      <c r="A212" t="s">
+      <c r="B212" t="s">
         <v>910</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>911</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>912</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>913</v>
       </c>
-      <c r="E212" t="s">
+    </row>
+    <row r="213" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A213" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="E213" s="2" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="12.75">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
         <v>920</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>921</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>922</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>923</v>
       </c>
-      <c r="E214" t="s">
+    </row>
+    <row r="215" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A215" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="E215" s="2" t="s">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="12.75">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
         <v>930</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>931</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>932</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>933</v>
       </c>
-      <c r="E216" t="s">
+    </row>
+    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A217" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>937</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="12.75">
-      <c r="A218" t="s">
+      <c r="C218" t="s">
         <v>938</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>939</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="E218" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A219" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>943</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="12.75">
-      <c r="A220" t="s">
+      <c r="C220" t="s">
         <v>944</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>945</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>946</v>
       </c>
-      <c r="E220" t="s">
+    </row>
+    <row r="221" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A221" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="E221" s="2" t="s">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="12.75">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
         <v>952</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>953</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>954</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>955</v>
       </c>
-      <c r="E222" t="s">
+    </row>
+    <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="E223" s="2" t="s">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="12.75">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
         <v>961</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>962</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>963</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>964</v>
       </c>
-      <c r="E224" t="s">
+    </row>
+    <row r="225" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A225" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="E225" s="2" t="s">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="12.75">
-      <c r="A226" t="s">
+      <c r="C226" t="s">
         <v>971</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>972</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>973</v>
       </c>
-      <c r="E226" t="s">
+    </row>
+    <row r="227" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A227" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="E227" s="2" t="s">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="12.75">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
         <v>980</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>981</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>982</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>983</v>
       </c>
-      <c r="E228" t="s">
+    </row>
+    <row r="229" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A229" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="E229" s="2" t="s">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="12.75">
-      <c r="A230" t="s">
+      <c r="B230" t="s">
         <v>990</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>991</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>992</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>993</v>
       </c>
-      <c r="E230" t="s">
+    </row>
+    <row r="231" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A231" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="E231" s="2" t="s">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="12.75">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
         <v>1000</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>1001</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>1002</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>1003</v>
       </c>
-      <c r="E232" t="s">
+    </row>
+    <row r="233" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A233" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="D233" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="E233" s="2" t="s">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>178</v>
+      </c>
+      <c r="B234" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="12.75">
-      <c r="A234" t="s">
-        <v>179</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>1010</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>180</v>
+      </c>
+      <c r="E234" t="s">
         <v>1011</v>
       </c>
-      <c r="D234" t="s">
-        <v>181</v>
-      </c>
-      <c r="E234" t="s">
+    </row>
+    <row r="235" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A235" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="E235" s="2" t="s">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="12.75">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
         <v>1018</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>1019</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>1020</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>1021</v>
       </c>
-      <c r="E236" t="s">
+    </row>
+    <row r="237" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A237" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="E237" s="2" t="s">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="12.75">
-      <c r="A238" t="s">
+      <c r="B238" t="s">
         <v>1028</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>1029</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>1030</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>1031</v>
       </c>
-      <c r="E238" t="s">
+    </row>
+    <row r="239" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A239" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="E239" s="2" t="s">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="12.75">
-      <c r="A240" t="s">
+      <c r="C240" t="s">
         <v>1038</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>1039</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>1040</v>
       </c>
-      <c r="E240" t="s">
+    </row>
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A241" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="E241" s="2" t="s">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="12.75">
-      <c r="A242" t="s">
+      <c r="C242" t="s">
         <v>1047</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>1048</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>1049</v>
       </c>
-      <c r="E242" t="s">
+    </row>
+    <row r="243" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A243" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="E243" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="E243" s="2" t="s">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="12.75">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
         <v>1056</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>1057</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>1058</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>1059</v>
       </c>
-      <c r="E244" t="s">
+    </row>
+    <row r="245" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A245" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="E245" s="2" t="s">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="12.75">
-      <c r="A246" t="s">
+      <c r="B246" t="s">
         <v>1066</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>1067</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>1068</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>1069</v>
       </c>
-      <c r="E246" t="s">
+    </row>
+    <row r="247" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A247" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="E247" s="2" t="s">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="12.75">
-      <c r="A248" t="s">
+      <c r="C248" t="s">
+        <v>376</v>
+      </c>
+      <c r="D248" t="s">
         <v>1076</v>
       </c>
-      <c r="C248" t="s">
-        <v>377</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="E248" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A249" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="D249" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="E249" s="2" t="s">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="12.75">
-      <c r="A250" t="s">
+      <c r="B250" t="s">
         <v>1083</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>1084</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>1085</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>1086</v>
       </c>
-      <c r="E250" t="s">
+    </row>
+    <row r="251" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A251" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="E251" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="E251" s="2" t="s">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="12.75">
-      <c r="A252" t="s">
+      <c r="B252" t="s">
         <v>1093</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>1094</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>1095</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>1096</v>
       </c>
-      <c r="E252" t="s">
+    </row>
+    <row r="253" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A253" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E253" s="2" t="s">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="12.75">
-      <c r="A254" t="s">
+      <c r="C254" t="s">
         <v>1103</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>1104</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1105</v>
       </c>
-      <c r="E254" t="s">
+    </row>
+    <row r="255" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A255" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="D255" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="E255" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="E255" s="2" t="s">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="12.75">
-      <c r="A256" t="s">
+      <c r="B256" t="s">
         <v>1112</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>1113</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>1114</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>1115</v>
       </c>
-      <c r="E256" t="s">
+    </row>
+    <row r="257" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A257" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="D257" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="E257" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="E257" s="2" t="s">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="12.75">
-      <c r="A258" t="s">
+      <c r="B258" t="s">
         <v>1122</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>1123</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>1124</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>1125</v>
       </c>
-      <c r="E258" t="s">
+    </row>
+    <row r="259" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A259" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="D259" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="E259" s="2" t="s">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="12.75">
-      <c r="A260" t="s">
+      <c r="C260" t="s">
         <v>1131</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1132</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>1133</v>
       </c>
-      <c r="E260" t="s">
+    </row>
+    <row r="261" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A261" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="E261" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="E261" s="2" t="s">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="12.75">
-      <c r="A262" t="s">
+      <c r="C262" t="s">
         <v>1140</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>1141</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>1142</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1143</v>
       </c>
     </row>
   </sheetData>
